--- a/src/Presentation/CTM.Win/DataTemplate/Delivery/GuoTai_C.xlsx
+++ b/src/Presentation/CTM.Win/DataTemplate/Delivery/GuoTai_C.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="交割单--国泰信用" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -390,6 +390,7 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="17.25" customWidth="1"/>
+    <col min="17" max="17" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.15">
